--- a/PowerSpel-PenTest/Private/Rooms/Floor plan.xlsx
+++ b/PowerSpel-PenTest/Private/Rooms/Floor plan.xlsx
@@ -7,7 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="BG" sheetId="1" r:id="rId1"/>
+    <sheet name="Second floor" sheetId="2" r:id="rId2"/>
+    <sheet name="Third floor" sheetId="3" r:id="rId3"/>
+    <sheet name="Fourth floor" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>y/x</t>
   </si>
@@ -142,6 +145,177 @@
     <t>Entree</t>
   </si>
   <si>
+    <t>Pantry1</t>
+  </si>
+  <si>
+    <t>Pantry3</t>
+  </si>
+  <si>
+    <t>Pantry2</t>
+  </si>
+  <si>
+    <t>Pantry4</t>
+  </si>
+  <si>
+    <t>Pantry5</t>
+  </si>
+  <si>
+    <t>Pantry6</t>
+  </si>
+  <si>
+    <t>MKT1</t>
+  </si>
+  <si>
+    <t>MKT2</t>
+  </si>
+  <si>
+    <t>Trap1</t>
+  </si>
+  <si>
+    <t>Kantine1</t>
+  </si>
+  <si>
+    <t>Kantine2</t>
+  </si>
+  <si>
+    <t>Kantine3</t>
+  </si>
+  <si>
+    <t>Terras1</t>
+  </si>
+  <si>
+    <t>Terras2</t>
+  </si>
+  <si>
+    <t>ADM1</t>
+  </si>
+  <si>
+    <t>ADM2</t>
+  </si>
+  <si>
+    <t>Trap2</t>
+  </si>
+  <si>
+    <t>BUS1</t>
+  </si>
+  <si>
+    <t>BUS2</t>
+  </si>
+  <si>
+    <t>Alpha1</t>
+  </si>
+  <si>
+    <t>Alpha2</t>
+  </si>
+  <si>
+    <t>Alpha3</t>
+  </si>
+  <si>
+    <t>Trap3</t>
+  </si>
+  <si>
+    <t>MKBO1</t>
+  </si>
+  <si>
+    <t>MKBO2</t>
+  </si>
+  <si>
+    <t>Leeg1</t>
+  </si>
+  <si>
+    <t>Leeg2</t>
+  </si>
+  <si>
+    <t>Leeg3</t>
+  </si>
+  <si>
+    <t>Leeg4</t>
+  </si>
+  <si>
+    <t>Leeg5</t>
+  </si>
+  <si>
+    <t>Leeg6</t>
+  </si>
+  <si>
+    <t>Leeg7</t>
+  </si>
+  <si>
+    <t>Leeg8</t>
+  </si>
+  <si>
+    <t>Leeg9</t>
+  </si>
+  <si>
+    <t>Trap4</t>
+  </si>
+  <si>
+    <t>Leeg10</t>
+  </si>
+  <si>
+    <t>Leeg11</t>
+  </si>
+  <si>
+    <t>Leeg12</t>
+  </si>
+  <si>
+    <t>Leeg14</t>
+  </si>
+  <si>
+    <t>Leeg16</t>
+  </si>
+  <si>
+    <t>Leeg13</t>
+  </si>
+  <si>
+    <t>Leeg15</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Verdiepingscoordinaat:</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Nog niet in code</t>
+  </si>
+  <si>
+    <t>Kamer aangemaakt</t>
+  </si>
+  <si>
+    <t>Exits kloppen</t>
+  </si>
+  <si>
+    <t>Beschrijving volledig</t>
+  </si>
+  <si>
     <t>SSD1</t>
   </si>
   <si>
@@ -158,132 +332,6 @@
   </si>
   <si>
     <t>SSD6</t>
-  </si>
-  <si>
-    <t>Pantry1</t>
-  </si>
-  <si>
-    <t>Pantry3</t>
-  </si>
-  <si>
-    <t>Pantry2</t>
-  </si>
-  <si>
-    <t>Pantry4</t>
-  </si>
-  <si>
-    <t>Pantry5</t>
-  </si>
-  <si>
-    <t>Pantry6</t>
-  </si>
-  <si>
-    <t>MKT1</t>
-  </si>
-  <si>
-    <t>MKT2</t>
-  </si>
-  <si>
-    <t>Trap1</t>
-  </si>
-  <si>
-    <t>Kantine1</t>
-  </si>
-  <si>
-    <t>Kantine2</t>
-  </si>
-  <si>
-    <t>Kantine3</t>
-  </si>
-  <si>
-    <t>Terras1</t>
-  </si>
-  <si>
-    <t>Terras2</t>
-  </si>
-  <si>
-    <t>ADM1</t>
-  </si>
-  <si>
-    <t>ADM2</t>
-  </si>
-  <si>
-    <t>Trap2</t>
-  </si>
-  <si>
-    <t>BUS1</t>
-  </si>
-  <si>
-    <t>BUS2</t>
-  </si>
-  <si>
-    <t>Alpha1</t>
-  </si>
-  <si>
-    <t>Alpha2</t>
-  </si>
-  <si>
-    <t>Alpha3</t>
-  </si>
-  <si>
-    <t>Trap3</t>
-  </si>
-  <si>
-    <t>MKBO1</t>
-  </si>
-  <si>
-    <t>MKBO2</t>
-  </si>
-  <si>
-    <t>Leeg1</t>
-  </si>
-  <si>
-    <t>Leeg2</t>
-  </si>
-  <si>
-    <t>Leeg3</t>
-  </si>
-  <si>
-    <t>Leeg4</t>
-  </si>
-  <si>
-    <t>Leeg5</t>
-  </si>
-  <si>
-    <t>Leeg6</t>
-  </si>
-  <si>
-    <t>Leeg7</t>
-  </si>
-  <si>
-    <t>Leeg8</t>
-  </si>
-  <si>
-    <t>Leeg9</t>
-  </si>
-  <si>
-    <t>Trap4</t>
-  </si>
-  <si>
-    <t>Leeg10</t>
-  </si>
-  <si>
-    <t>Leeg11</t>
-  </si>
-  <si>
-    <t>Leeg12</t>
-  </si>
-  <si>
-    <t>Leeg14</t>
-  </si>
-  <si>
-    <t>Leeg16</t>
-  </si>
-  <si>
-    <t>Leeg13</t>
-  </si>
-  <si>
-    <t>Leeg15</t>
   </si>
 </sst>
 </file>
@@ -306,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +373,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -590,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -616,12 +694,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,9 +701,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -738,10 +807,143 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,113 +1259,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP20"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="7.42578125" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" style="47" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="F2" s="51" t="s">
+      <c r="Q1" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F2" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="84"/>
       <c r="H2">
         <v>53</v>
       </c>
-      <c r="R2" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="51"/>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="51"/>
-      <c r="AC2">
-        <v>17</v>
-      </c>
-      <c r="AK2" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL2" s="51"/>
-      <c r="AM2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="1">
+      <c r="N3" s="54">
         <v>12</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="1">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="6"/>
+      <c r="Z3" s="63"/>
       <c r="AG3" s="6"/>
-      <c r="AH3" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-    </row>
-    <row r="4" spans="1:42" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:33" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1179,605 +1346,549 @@
       <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="1">
+      <c r="N4" s="54">
         <v>11</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="1">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="87" t="str">
+        <f>CONCATENATE(R15,N4,)</f>
+        <v>0411</v>
+      </c>
+      <c r="S4" s="87" t="str">
+        <f>CONCATENATE(S15,N4,)</f>
+        <v>0511</v>
+      </c>
+      <c r="T4" s="87" t="str">
+        <f>CONCATENATE(T15,N4)</f>
+        <v>0611</v>
+      </c>
+      <c r="U4" s="87" t="str">
+        <f>CONCATENATE(U15,N4)</f>
+        <v>0711</v>
+      </c>
+      <c r="V4" s="87" t="str">
+        <f>CONCATENATE(V15,N4)</f>
+        <v>0811</v>
+      </c>
+      <c r="W4" s="81" t="str">
+        <f>CONCATENATE(W15,N4)</f>
+        <v>0911</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Z4" s="75" t="s">
+        <v>93</v>
+      </c>
       <c r="AG4" s="6"/>
-      <c r="AH4" s="1">
-        <v>11</v>
-      </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-    </row>
-    <row r="5" spans="1:42" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:33" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="34"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="30" t="s">
+      <c r="F5" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="1">
+      <c r="N5" s="54">
         <v>10</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="5"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF5" s="25"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="87" t="str">
+        <f>CONCATENATE(R15,N5,)</f>
+        <v>0410</v>
+      </c>
+      <c r="S5" s="58" t="str">
+        <f>CONCATENATE(S15,N5,)</f>
+        <v>0510</v>
+      </c>
+      <c r="T5" s="59" t="str">
+        <f>CONCATENATE(T15,N5)</f>
+        <v>0610</v>
+      </c>
+      <c r="U5" s="60" t="str">
+        <f>CONCATENATE(U15,N5)</f>
+        <v>0710</v>
+      </c>
+      <c r="V5" s="78"/>
+      <c r="W5" s="81" t="str">
+        <f>CONCATENATE(W15,N5)</f>
+        <v>0910</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Z5" s="64" t="s">
+        <v>94</v>
+      </c>
       <c r="AG5" s="6"/>
-      <c r="AH5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AI5" s="5"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO5" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:33" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="F6" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="1">
-        <v>9</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" s="25"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="1">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="5"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF6" s="25"/>
+      <c r="N6" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="87" t="str">
+        <f>CONCATENATE(Q15,N6,)</f>
+        <v>0309</v>
+      </c>
+      <c r="R6" s="87" t="str">
+        <f>CONCATENATE(R15,N6,)</f>
+        <v>0409</v>
+      </c>
+      <c r="S6" s="62" t="str">
+        <f>CONCATENATE(S15,N6,)</f>
+        <v>0509</v>
+      </c>
+      <c r="T6" s="88" t="str">
+        <f>CONCATENATE(T15,N6)</f>
+        <v>0609</v>
+      </c>
+      <c r="U6" s="61" t="str">
+        <f>CONCATENATE(U15,N6)</f>
+        <v>0709</v>
+      </c>
+      <c r="V6" s="79"/>
+      <c r="W6" s="81" t="str">
+        <f>CONCATENATE(W15,N6)</f>
+        <v>0909</v>
+      </c>
+      <c r="X6" s="6"/>
+      <c r="Z6" s="76" t="s">
+        <v>95</v>
+      </c>
       <c r="AG6" s="6"/>
-      <c r="AH6" s="1">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="5"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO6" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:33" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="43" t="s">
+      <c r="F7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="1">
-        <v>8</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="T7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="1">
-        <v>8</v>
-      </c>
-      <c r="Y7" s="5"/>
-      <c r="AC7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF7" s="25"/>
+      <c r="N7" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="87" t="str">
+        <f>CONCATENATE(Q15,N7,)</f>
+        <v>0308</v>
+      </c>
+      <c r="R7" s="65" t="str">
+        <f>CONCATENATE(R15,N7,)</f>
+        <v>0408</v>
+      </c>
+      <c r="S7" s="91" t="str">
+        <f>CONCATENATE(S15,N7)</f>
+        <v>0508</v>
+      </c>
+      <c r="T7" s="89" t="str">
+        <f>CONCATENATE(T15,N7)</f>
+        <v>0608</v>
+      </c>
+      <c r="U7" s="93" t="str">
+        <f>CONCATENATE(U15,N7)</f>
+        <v>0708</v>
+      </c>
+      <c r="V7" s="80"/>
+      <c r="W7" s="81" t="str">
+        <f>CONCATENATE(W15,N7)</f>
+        <v>0908</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Z7" s="77" t="s">
+        <v>96</v>
+      </c>
       <c r="AG7" s="6"/>
-      <c r="AH7" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI7" s="5"/>
-      <c r="AM7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO7" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:33" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="F8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="43" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="1">
-        <v>7</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="1">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="5"/>
-      <c r="AC8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF8" s="5"/>
+      <c r="N8" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="87" t="str">
+        <f>CONCATENATE(Q15,N8,)</f>
+        <v>0307</v>
+      </c>
+      <c r="R8" s="66" t="str">
+        <f>CONCATENATE(R15,N8,)</f>
+        <v>0407</v>
+      </c>
+      <c r="S8" s="90" t="str">
+        <f>CONCATENATE(S15,N8)</f>
+        <v>0507</v>
+      </c>
+      <c r="T8" s="90" t="str">
+        <f>CONCATENATE(T15,N8)</f>
+        <v>0607</v>
+      </c>
+      <c r="U8" s="86" t="str">
+        <f>CONCATENATE(U15,N8)</f>
+        <v>0707</v>
+      </c>
+      <c r="V8" s="89" t="str">
+        <f>CONCATENATE(V15,N8)</f>
+        <v>0807</v>
+      </c>
+      <c r="W8" s="82" t="str">
+        <f>CONCATENATE(W15,N8)</f>
+        <v>0907</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Z8" s="63"/>
       <c r="AG8" s="6"/>
-      <c r="AH8" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI8" s="5"/>
-      <c r="AM8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO8" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP8" s="2"/>
-    </row>
-    <row r="9" spans="1:42" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:33" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="48" t="s">
+      <c r="F9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="1">
-        <v>6</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="5"/>
-      <c r="AC9" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF9" s="25"/>
+      <c r="N9" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="89" t="str">
+        <f>CONCATENATE(Q15,N9,)</f>
+        <v>0306</v>
+      </c>
+      <c r="R9" s="68" t="str">
+        <f>CONCATENATE(R15,N9,)</f>
+        <v>0406</v>
+      </c>
+      <c r="S9" s="86" t="str">
+        <f>CONCATENATE(S15,N9)</f>
+        <v>0506</v>
+      </c>
+      <c r="T9" s="92" t="str">
+        <f>CONCATENATE(T15,N9)</f>
+        <v>0606</v>
+      </c>
+      <c r="U9" s="69" t="str">
+        <f>CONCATENATE(U15,N9)</f>
+        <v>0706</v>
+      </c>
+      <c r="V9" s="78"/>
+      <c r="W9" s="81" t="str">
+        <f>CONCATENATE(W15,N9)</f>
+        <v>0906</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Z9" s="63"/>
       <c r="AG9" s="6"/>
-      <c r="AH9" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI9" s="5"/>
-      <c r="AM9" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN9" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO9" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:33" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="41" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="1">
-        <v>5</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="25"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="5"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF10" s="25"/>
+      <c r="N10" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="86" t="str">
+        <f>CONCATENATE(Q15,N10,)</f>
+        <v>0305</v>
+      </c>
+      <c r="R10" s="87" t="str">
+        <f>CONCATENATE(R15,N10,)</f>
+        <v>0405</v>
+      </c>
+      <c r="S10" s="70" t="str">
+        <f>CONCATENATE(S15,N10)</f>
+        <v>0505</v>
+      </c>
+      <c r="T10" s="71" t="str">
+        <f>CONCATENATE(T15,N10)</f>
+        <v>0605</v>
+      </c>
+      <c r="U10" s="72" t="str">
+        <f>CONCATENATE(U15,N10)</f>
+        <v>0705</v>
+      </c>
+      <c r="V10" s="79"/>
+      <c r="W10" s="81" t="str">
+        <f>CONCATENATE(W15,N10)</f>
+        <v>0905</v>
+      </c>
+      <c r="X10" s="6"/>
+      <c r="Z10" s="63"/>
       <c r="AG10" s="6"/>
-      <c r="AH10" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI10" s="5"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO10" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:33" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="35" t="s">
+      <c r="H11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="1">
-        <v>4</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="T11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="5"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE11" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF11" s="25"/>
+      <c r="N11" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="87" t="str">
+        <f>CONCATENATE(R15,N11,)</f>
+        <v>0404</v>
+      </c>
+      <c r="S11" s="73" t="str">
+        <f>CONCATENATE(S15,N11)</f>
+        <v>0504</v>
+      </c>
+      <c r="T11" s="67" t="str">
+        <f>CONCATENATE(T15,N11)</f>
+        <v>0604</v>
+      </c>
+      <c r="U11" s="74" t="str">
+        <f>CONCATENATE(U15,N11)</f>
+        <v>0704</v>
+      </c>
+      <c r="V11" s="80"/>
+      <c r="W11" s="81" t="str">
+        <f>CONCATENATE(W15,N11)</f>
+        <v>0904</v>
+      </c>
+      <c r="X11" s="6"/>
+      <c r="Z11" s="63"/>
       <c r="AG11" s="6"/>
-      <c r="AH11" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI11" s="5"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO11" s="36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:33" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="47" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="44" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="1">
-        <v>3</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
+      <c r="N12" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="86" t="str">
+        <f>CONCATENATE(R15,N12,)</f>
+        <v>0403</v>
+      </c>
+      <c r="S12" s="86" t="str">
+        <f>CONCATENATE(S15,N12)</f>
+        <v>0503</v>
+      </c>
+      <c r="T12" s="86" t="str">
+        <f>CONCATENATE(T15,N12)</f>
+        <v>0603</v>
+      </c>
+      <c r="U12" s="86" t="str">
+        <f>CONCATENATE(U15,N12)</f>
+        <v>0703</v>
+      </c>
+      <c r="V12" s="86" t="str">
+        <f>CONCATENATE(V15,N12)</f>
+        <v>0803</v>
+      </c>
+      <c r="W12" s="83" t="str">
+        <f>CONCATENATE(W15,N12)</f>
+        <v>0903</v>
+      </c>
+      <c r="X12" s="6"/>
+      <c r="Z12" s="63"/>
       <c r="AG12" s="6"/>
-      <c r="AH12" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-    </row>
-    <row r="13" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1791,94 +1902,53 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="1">
-        <v>2</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-    </row>
-    <row r="14" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="34"/>
+      <c r="N13" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="AG13" s="34"/>
+    </row>
+    <row r="14" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-    </row>
-    <row r="15" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="34"/>
+      <c r="N14" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="AG14" s="22"/>
+    </row>
+    <row r="15" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,88 +1982,40 @@
       <c r="K15" s="1">
         <v>10</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>2</v>
-      </c>
-      <c r="P15" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>4</v>
-      </c>
-      <c r="R15" s="4">
-        <v>5</v>
-      </c>
-      <c r="S15" s="4">
-        <v>6</v>
-      </c>
-      <c r="T15" s="4">
-        <v>7</v>
-      </c>
-      <c r="U15" s="4">
-        <v>8</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD15" s="4">
-        <v>6</v>
-      </c>
-      <c r="AE15" s="4">
-        <v>7</v>
-      </c>
-      <c r="AF15" s="4">
-        <v>8</v>
+      <c r="O15" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="S15" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="T15" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="V15" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="W15" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="X15" s="54">
+        <v>10</v>
       </c>
       <c r="AG15" s="1"/>
-      <c r="AH15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>4</v>
-      </c>
-      <c r="AM15" s="4">
-        <v>5</v>
-      </c>
-      <c r="AN15" s="4">
-        <v>6</v>
-      </c>
-      <c r="AO15" s="4">
-        <v>7</v>
-      </c>
-      <c r="AP15" s="4">
-        <v>8</v>
-      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -2006,25 +2028,798 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
       <c r="E20">
-        <f>SUM(H2,T2,AC2,AM2)</f>
+        <f>SUM(H2,'Second floor'!I2,'Third floor'!G2,'Fourth floor'!G2)</f>
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="I2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PowerSpel-PenTest/Private/Rooms/Floor plan.xlsx
+++ b/PowerSpel-PenTest/Private/Rooms/Floor plan.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -858,16 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,34 +906,43 @@
     <xf numFmtId="1" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,7 +1251,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1262,7 +1262,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,20 +1275,20 @@
       <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
       <c r="T1" s="57" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="84"/>
+      <c r="G2" s="89"/>
       <c r="H2">
         <v>53</v>
       </c>
@@ -1357,32 +1357,32 @@
       <c r="O4" s="5"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="87" t="str">
+      <c r="R4" s="82" t="str">
         <f>CONCATENATE(R15,N4,)</f>
         <v>0411</v>
       </c>
-      <c r="S4" s="87" t="str">
+      <c r="S4" s="82" t="str">
         <f>CONCATENATE(S15,N4,)</f>
         <v>0511</v>
       </c>
-      <c r="T4" s="87" t="str">
+      <c r="T4" s="82" t="str">
         <f>CONCATENATE(T15,N4)</f>
         <v>0611</v>
       </c>
-      <c r="U4" s="87" t="str">
+      <c r="U4" s="82" t="str">
         <f>CONCATENATE(U15,N4)</f>
         <v>0711</v>
       </c>
-      <c r="V4" s="87" t="str">
+      <c r="V4" s="82" t="str">
         <f>CONCATENATE(V15,N4)</f>
         <v>0811</v>
       </c>
-      <c r="W4" s="81" t="str">
+      <c r="W4" s="78" t="str">
         <f>CONCATENATE(W15,N4)</f>
         <v>0911</v>
       </c>
       <c r="X4" s="6"/>
-      <c r="Z4" s="75" t="s">
+      <c r="Z4" s="72" t="s">
         <v>93</v>
       </c>
       <c r="AG4" s="6"/>
@@ -1420,7 +1420,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="31"/>
-      <c r="R5" s="87" t="str">
+      <c r="R5" s="82" t="str">
         <f>CONCATENATE(R15,N5,)</f>
         <v>0410</v>
       </c>
@@ -1436,8 +1436,8 @@
         <f>CONCATENATE(U15,N5)</f>
         <v>0710</v>
       </c>
-      <c r="V5" s="78"/>
-      <c r="W5" s="81" t="str">
+      <c r="V5" s="75"/>
+      <c r="W5" s="78" t="str">
         <f>CONCATENATE(W15,N5)</f>
         <v>0910</v>
       </c>
@@ -1481,11 +1481,11 @@
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="87" t="str">
+      <c r="Q6" s="82" t="str">
         <f>CONCATENATE(Q15,N6,)</f>
         <v>0309</v>
       </c>
-      <c r="R6" s="87" t="str">
+      <c r="R6" s="82" t="str">
         <f>CONCATENATE(R15,N6,)</f>
         <v>0409</v>
       </c>
@@ -1493,7 +1493,7 @@
         <f>CONCATENATE(S15,N6,)</f>
         <v>0509</v>
       </c>
-      <c r="T6" s="88" t="str">
+      <c r="T6" s="83" t="str">
         <f>CONCATENATE(T15,N6)</f>
         <v>0609</v>
       </c>
@@ -1501,13 +1501,13 @@
         <f>CONCATENATE(U15,N6)</f>
         <v>0709</v>
       </c>
-      <c r="V6" s="79"/>
-      <c r="W6" s="81" t="str">
+      <c r="V6" s="76"/>
+      <c r="W6" s="78" t="str">
         <f>CONCATENATE(W15,N6)</f>
         <v>0909</v>
       </c>
       <c r="X6" s="6"/>
-      <c r="Z6" s="76" t="s">
+      <c r="Z6" s="73" t="s">
         <v>95</v>
       </c>
       <c r="AG6" s="6"/>
@@ -1546,33 +1546,33 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="87" t="str">
+      <c r="Q7" s="82" t="str">
         <f>CONCATENATE(Q15,N7,)</f>
         <v>0308</v>
       </c>
-      <c r="R7" s="65" t="str">
+      <c r="R7" s="91" t="str">
         <f>CONCATENATE(R15,N7,)</f>
         <v>0408</v>
       </c>
-      <c r="S7" s="91" t="str">
+      <c r="S7" s="86" t="str">
         <f>CONCATENATE(S15,N7)</f>
         <v>0508</v>
       </c>
-      <c r="T7" s="89" t="str">
+      <c r="T7" s="84" t="str">
         <f>CONCATENATE(T15,N7)</f>
         <v>0608</v>
       </c>
-      <c r="U7" s="93" t="str">
+      <c r="U7" s="88" t="str">
         <f>CONCATENATE(U15,N7)</f>
         <v>0708</v>
       </c>
-      <c r="V7" s="80"/>
-      <c r="W7" s="81" t="str">
+      <c r="V7" s="77"/>
+      <c r="W7" s="78" t="str">
         <f>CONCATENATE(W15,N7)</f>
         <v>0908</v>
       </c>
       <c r="X7" s="6"/>
-      <c r="Z7" s="77" t="s">
+      <c r="Z7" s="74" t="s">
         <v>96</v>
       </c>
       <c r="AG7" s="6"/>
@@ -1611,31 +1611,31 @@
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="87" t="str">
+      <c r="Q8" s="82" t="str">
         <f>CONCATENATE(Q15,N8,)</f>
         <v>0307</v>
       </c>
-      <c r="R8" s="66" t="str">
+      <c r="R8" s="92" t="str">
         <f>CONCATENATE(R15,N8,)</f>
         <v>0407</v>
       </c>
-      <c r="S8" s="90" t="str">
+      <c r="S8" s="85" t="str">
         <f>CONCATENATE(S15,N8)</f>
         <v>0507</v>
       </c>
-      <c r="T8" s="90" t="str">
+      <c r="T8" s="85" t="str">
         <f>CONCATENATE(T15,N8)</f>
         <v>0607</v>
       </c>
-      <c r="U8" s="86" t="str">
+      <c r="U8" s="81" t="str">
         <f>CONCATENATE(U15,N8)</f>
         <v>0707</v>
       </c>
-      <c r="V8" s="89" t="str">
+      <c r="V8" s="84" t="str">
         <f>CONCATENATE(V15,N8)</f>
         <v>0807</v>
       </c>
-      <c r="W8" s="82" t="str">
+      <c r="W8" s="79" t="str">
         <f>CONCATENATE(W15,N8)</f>
         <v>0907</v>
       </c>
@@ -1677,28 +1677,28 @@
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="89" t="str">
+      <c r="Q9" s="84" t="str">
         <f>CONCATENATE(Q15,N9,)</f>
         <v>0306</v>
       </c>
-      <c r="R9" s="68" t="str">
+      <c r="R9" s="93" t="str">
         <f>CONCATENATE(R15,N9,)</f>
         <v>0406</v>
       </c>
-      <c r="S9" s="86" t="str">
+      <c r="S9" s="81" t="str">
         <f>CONCATENATE(S15,N9)</f>
         <v>0506</v>
       </c>
-      <c r="T9" s="92" t="str">
+      <c r="T9" s="87" t="str">
         <f>CONCATENATE(T15,N9)</f>
         <v>0606</v>
       </c>
-      <c r="U9" s="69" t="str">
+      <c r="U9" s="66" t="str">
         <f>CONCATENATE(U15,N9)</f>
         <v>0706</v>
       </c>
-      <c r="V9" s="78"/>
-      <c r="W9" s="81" t="str">
+      <c r="V9" s="75"/>
+      <c r="W9" s="78" t="str">
         <f>CONCATENATE(W15,N9)</f>
         <v>0906</v>
       </c>
@@ -1740,28 +1740,28 @@
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="86" t="str">
+      <c r="Q10" s="81" t="str">
         <f>CONCATENATE(Q15,N10,)</f>
         <v>0305</v>
       </c>
-      <c r="R10" s="87" t="str">
+      <c r="R10" s="82" t="str">
         <f>CONCATENATE(R15,N10,)</f>
         <v>0405</v>
       </c>
-      <c r="S10" s="70" t="str">
+      <c r="S10" s="67" t="str">
         <f>CONCATENATE(S15,N10)</f>
         <v>0505</v>
       </c>
-      <c r="T10" s="71" t="str">
+      <c r="T10" s="68" t="str">
         <f>CONCATENATE(T15,N10)</f>
         <v>0605</v>
       </c>
-      <c r="U10" s="72" t="str">
+      <c r="U10" s="69" t="str">
         <f>CONCATENATE(U15,N10)</f>
         <v>0705</v>
       </c>
-      <c r="V10" s="79"/>
-      <c r="W10" s="81" t="str">
+      <c r="V10" s="76"/>
+      <c r="W10" s="78" t="str">
         <f>CONCATENATE(W15,N10)</f>
         <v>0905</v>
       </c>
@@ -1802,24 +1802,24 @@
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="87" t="str">
+      <c r="R11" s="82" t="str">
         <f>CONCATENATE(R15,N11,)</f>
         <v>0404</v>
       </c>
-      <c r="S11" s="73" t="str">
+      <c r="S11" s="70" t="str">
         <f>CONCATENATE(S15,N11)</f>
         <v>0504</v>
       </c>
-      <c r="T11" s="67" t="str">
+      <c r="T11" s="65" t="str">
         <f>CONCATENATE(T15,N11)</f>
         <v>0604</v>
       </c>
-      <c r="U11" s="74" t="str">
+      <c r="U11" s="71" t="str">
         <f>CONCATENATE(U15,N11)</f>
         <v>0704</v>
       </c>
-      <c r="V11" s="80"/>
-      <c r="W11" s="81" t="str">
+      <c r="V11" s="77"/>
+      <c r="W11" s="78" t="str">
         <f>CONCATENATE(W15,N11)</f>
         <v>0904</v>
       </c>
@@ -1860,27 +1860,27 @@
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="86" t="str">
+      <c r="R12" s="81" t="str">
         <f>CONCATENATE(R15,N12,)</f>
         <v>0403</v>
       </c>
-      <c r="S12" s="86" t="str">
+      <c r="S12" s="81" t="str">
         <f>CONCATENATE(S15,N12)</f>
         <v>0503</v>
       </c>
-      <c r="T12" s="86" t="str">
+      <c r="T12" s="81" t="str">
         <f>CONCATENATE(T15,N12)</f>
         <v>0603</v>
       </c>
-      <c r="U12" s="86" t="str">
+      <c r="U12" s="81" t="str">
         <f>CONCATENATE(U15,N12)</f>
         <v>0703</v>
       </c>
-      <c r="V12" s="86" t="str">
+      <c r="V12" s="81" t="str">
         <f>CONCATENATE(V15,N12)</f>
         <v>0803</v>
       </c>
-      <c r="W12" s="83" t="str">
+      <c r="W12" s="80" t="str">
         <f>CONCATENATE(W15,N12)</f>
         <v>0903</v>
       </c>
@@ -2028,11 +2028,11 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
       <c r="E20">
         <f>SUM(H2,'Second floor'!I2,'Third floor'!G2,'Fourth floor'!G2)</f>
         <v>106</v>
@@ -2068,10 +2068,10 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="84"/>
+      <c r="H2" s="89"/>
       <c r="I2">
         <v>19</v>
       </c>
@@ -2338,10 +2338,10 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2">
         <v>17</v>
       </c>
@@ -2592,10 +2592,10 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2">
         <v>17</v>
       </c>
